--- a/output/aggregate_tables/compare_status_by_number.xlsx
+++ b/output/aggregate_tables/compare_status_by_number.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,37 +686,37 @@
         <v>21</v>
       </c>
       <c r="C4" s="7" t="n">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D4" s="7" t="n">
         <v>16</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F4" s="7" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H4" s="7" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>11.18881118881119</v>
+        <v>10.45751633986928</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>55.94405594405595</v>
+        <v>53.59477124183007</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>32.86713286713287</v>
+        <v>35.94771241830065</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>67.13286713286713</v>
+        <v>64.05228758169935</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32.86713286713287</v>
+        <v>35.94771241830065</v>
       </c>
       <c r="N4" s="7" t="n">
         <v>42</v>
@@ -760,7 +760,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D5" s="7" t="n">
         <v>18</v>
@@ -769,28 +769,28 @@
         <v>117</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" s="7" t="n">
         <v>135</v>
       </c>
       <c r="H5" s="7" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>10.16949152542373</v>
+        <v>10.1123595505618</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>66.10169491525424</v>
+        <v>65.73033707865169</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>23.72881355932203</v>
+        <v>24.15730337078652</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>76.27118644067797</v>
+        <v>75.84269662921348</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23.72881355932203</v>
+        <v>24.15730337078652</v>
       </c>
       <c r="N5" s="7" t="n">
         <v>34</v>
@@ -1130,37 +1130,37 @@
         <v>47</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D10" s="7" t="n">
         <v>27</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" s="7" t="n">
         <v>33</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7" t="n">
         <v>33</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>32.92682926829269</v>
+        <v>32.53012048192771</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>26.82926829268293</v>
+        <v>27.71084337349398</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>40.2439024390244</v>
+        <v>39.75903614457831</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>59.7560975609756</v>
+        <v>60.24096385542169</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40.2439024390244</v>
+        <v>39.75903614457831</v>
       </c>
       <c r="N10" s="7" t="n">
         <v>37</v>
@@ -1352,37 +1352,37 @@
         <v>61</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D13" s="7" t="n">
         <v>29</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H13" s="7" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>32.22222222222222</v>
+        <v>30.85106382978723</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>31.11111111111111</v>
+        <v>30.85106382978723</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>36.66666666666666</v>
+        <v>38.29787234042553</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>63.33333333333333</v>
+        <v>61.70212765957447</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36.66666666666666</v>
+        <v>38.29787234042553</v>
       </c>
       <c r="N13" s="7" t="n">
         <v>25</v>
@@ -1798,10 +1798,10 @@
         </is>
       </c>
       <c r="C19" s="7" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D19" s="7" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E19" s="7" t="n">
         <v>3</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="G19" s="7" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="5" t="n">
-        <v>86.95652173913044</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>13.04347826086956</v>
+      <c r="I19" s="7" t="n">
+        <v>80</v>
+      </c>
+      <c r="J19" s="7" t="n">
+        <v>20</v>
       </c>
       <c r="K19" s="7" t="n">
         <v>0</v>
@@ -1848,41 +1848,41 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Deep Sea</t>
+          <t>Salmon</t>
         </is>
       </c>
       <c r="C20" s="7" t="n">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="D20" s="7" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E20" s="7" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G20" s="7" t="n">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="H20" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="I20" s="7" t="n">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>30.58823529411765</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>29.41176470588236</v>
+        <v>36.47058823529412</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>70.58823529411765</v>
+        <v>32.94117647058823</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>29.41176470588236</v>
+        <v>67.05882352941175</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>70.58823529411765</v>
+        <v>32.94117647058823</v>
       </c>
       <c r="N20" s="5" t="n"/>
       <c r="O20" s="5" t="n"/>
@@ -1902,41 +1902,41 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Salmon</t>
+          <t>Sharks</t>
         </is>
       </c>
       <c r="C21" s="7" t="n">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D21" s="7" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E21" s="7" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G21" s="7" t="n">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>30.58823529411765</v>
+        <v>51.85185185185185</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>36.47058823529412</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>32.94117647058823</v>
+        <v>29.62962962962963</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>67.05882352941175</v>
+        <v>70.37037037037037</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>32.94117647058823</v>
+        <v>29.62962962962963</v>
       </c>
       <c r="N21" s="5" t="n"/>
       <c r="O21" s="5" t="n"/>
@@ -1956,53 +1956,75 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sharks</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="C22" s="7" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D22" s="7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F22" s="7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G22" s="7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H22" s="7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>51.85185185185185</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>18.51851851851852</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>29.62962962962963</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>70.37037037037037</v>
+        <v>86.95652173913044</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29.62962962962963</v>
-      </c>
-      <c r="N22" s="5" t="n"/>
-      <c r="O22" s="5" t="n"/>
-      <c r="P22" s="5" t="n"/>
-      <c r="Q22" s="5" t="n"/>
-      <c r="R22" s="5" t="n"/>
-      <c r="S22" s="5" t="n"/>
-      <c r="T22" s="5" t="n"/>
-      <c r="U22" s="5" t="n"/>
-      <c r="V22" s="5" t="n"/>
-      <c r="W22" s="5" t="n"/>
-      <c r="X22" s="5" t="n"/>
+        <v>13.04347826086956</v>
+      </c>
+      <c r="N22" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="O22" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="P22" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="S22" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" s="5" t="n">
+        <v>56.52173913043478</v>
+      </c>
+      <c r="U22" s="5" t="n">
+        <v>30.43478260869566</v>
+      </c>
+      <c r="V22" s="5" t="n">
+        <v>13.04347826086956</v>
+      </c>
+      <c r="W22" s="5" t="n">
+        <v>86.95652173913044</v>
+      </c>
+      <c r="X22" s="5" t="n">
+        <v>13.04347826086956</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="n">
@@ -2010,149 +2032,73 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="C23" s="7" t="n">
-        <v>23</v>
+        <v>2596</v>
       </c>
       <c r="D23" s="7" t="n">
-        <v>13</v>
+        <v>604</v>
       </c>
       <c r="E23" s="7" t="n">
-        <v>7</v>
+        <v>1077</v>
       </c>
       <c r="F23" s="7" t="n">
-        <v>3</v>
+        <v>915</v>
       </c>
       <c r="G23" s="7" t="n">
-        <v>20</v>
+        <v>1681</v>
       </c>
       <c r="H23" s="7" t="n">
-        <v>3</v>
+        <v>915</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>56.52173913043478</v>
+        <v>23.26656394453005</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>30.43478260869566</v>
+        <v>41.48690292758089</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>13.04347826086956</v>
+        <v>35.24653312788907</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>86.95652173913044</v>
+        <v>64.75346687211095</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>13.04347826086956</v>
+        <v>35.24653312788907</v>
       </c>
       <c r="N23" s="7" t="n">
-        <v>23</v>
+        <v>531</v>
       </c>
       <c r="O23" s="7" t="n">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="P23" s="7" t="n">
-        <v>7</v>
+        <v>268</v>
       </c>
       <c r="Q23" s="7" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="R23" s="7" t="n">
-        <v>20</v>
+        <v>331</v>
       </c>
       <c r="S23" s="7" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>56.52173913043478</v>
+        <v>11.86440677966102</v>
       </c>
       <c r="U23" s="5" t="n">
-        <v>30.43478260869566</v>
+        <v>50.4708097928437</v>
       </c>
       <c r="V23" s="5" t="n">
-        <v>13.04347826086956</v>
+        <v>37.66478342749529</v>
       </c>
       <c r="W23" s="5" t="n">
-        <v>86.95652173913044</v>
+        <v>62.33521657250471</v>
       </c>
       <c r="X23" s="5" t="n">
-        <v>13.04347826086956</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="C24" s="7" t="n">
-        <v>2605</v>
-      </c>
-      <c r="D24" s="7" t="n">
-        <v>612</v>
-      </c>
-      <c r="E24" s="7" t="n">
-        <v>1078</v>
-      </c>
-      <c r="F24" s="7" t="n">
-        <v>915</v>
-      </c>
-      <c r="G24" s="7" t="n">
-        <v>1690</v>
-      </c>
-      <c r="H24" s="7" t="n">
-        <v>915</v>
-      </c>
-      <c r="I24" s="5" t="n">
-        <v>23.49328214971209</v>
-      </c>
-      <c r="J24" s="5" t="n">
-        <v>41.38195777351248</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>35.12476007677543</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>64.87523992322457</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>35.12476007677543</v>
-      </c>
-      <c r="N24" s="7" t="n">
-        <v>531</v>
-      </c>
-      <c r="O24" s="7" t="n">
-        <v>63</v>
-      </c>
-      <c r="P24" s="7" t="n">
-        <v>268</v>
-      </c>
-      <c r="Q24" s="7" t="n">
-        <v>200</v>
-      </c>
-      <c r="R24" s="7" t="n">
-        <v>331</v>
-      </c>
-      <c r="S24" s="7" t="n">
-        <v>200</v>
-      </c>
-      <c r="T24" s="5" t="n">
-        <v>11.86440677966102</v>
-      </c>
-      <c r="U24" s="5" t="n">
-        <v>50.4708097928437</v>
-      </c>
-      <c r="V24" s="5" t="n">
-        <v>37.66478342749529</v>
-      </c>
-      <c r="W24" s="5" t="n">
-        <v>62.33521657250471</v>
-      </c>
-      <c r="X24" s="5" t="n">
         <v>37.66478342749529</v>
       </c>
     </row>

--- a/output/aggregate_tables/compare_status_by_number.xlsx
+++ b/output/aggregate_tables/compare_status_by_number.xlsx
@@ -908,37 +908,37 @@
         <v>34</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D7" s="7" t="n">
         <v>22</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="n">
         <v>70</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H7" s="7" t="n">
         <v>70</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>16.66666666666666</v>
+        <v>16.54135338345865</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>30.3030303030303</v>
+        <v>30.82706766917293</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>53.03030303030303</v>
+        <v>52.63157894736842</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46.96969696969697</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53.03030303030303</v>
+        <v>52.63157894736842</v>
       </c>
       <c r="N7" s="7" t="n">
         <v>39</v>
@@ -2036,37 +2036,37 @@
         </is>
       </c>
       <c r="C23" s="7" t="n">
-        <v>2596</v>
+        <v>2597</v>
       </c>
       <c r="D23" s="7" t="n">
         <v>604</v>
       </c>
       <c r="E23" s="7" t="n">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="F23" s="7" t="n">
         <v>915</v>
       </c>
       <c r="G23" s="7" t="n">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="H23" s="7" t="n">
         <v>915</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>23.26656394453005</v>
+        <v>23.25760492876396</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>41.48690292758089</v>
+        <v>41.50943396226415</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>35.24653312788907</v>
+        <v>35.23296110897189</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>64.75346687211095</v>
+        <v>64.76703889102811</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>35.24653312788907</v>
+        <v>35.23296110897189</v>
       </c>
       <c r="N23" s="7" t="n">
         <v>531</v>

--- a/output/aggregate_tables/compare_status_by_number.xlsx
+++ b/output/aggregate_tables/compare_status_by_number.xlsx
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="C21" s="7" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D21" s="7" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E21" s="7" t="n">
         <v>5</v>
@@ -1918,25 +1918,25 @@
         <v>8</v>
       </c>
       <c r="G21" s="7" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H21" s="7" t="n">
         <v>8</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>51.85185185185185</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>18.51851851851852</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>29.62962962962963</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>70.37037037037037</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>29.62962962962963</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="N21" s="5" t="n"/>
       <c r="O21" s="5" t="n"/>
@@ -2036,10 +2036,10 @@
         </is>
       </c>
       <c r="C23" s="7" t="n">
-        <v>2597</v>
+        <v>2587</v>
       </c>
       <c r="D23" s="7" t="n">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="E23" s="7" t="n">
         <v>1078</v>
@@ -2048,25 +2048,25 @@
         <v>915</v>
       </c>
       <c r="G23" s="7" t="n">
-        <v>1682</v>
+        <v>1672</v>
       </c>
       <c r="H23" s="7" t="n">
         <v>915</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>23.25760492876396</v>
+        <v>22.9609586393506</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>41.50943396226415</v>
+        <v>41.66988790104368</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>35.23296110897189</v>
+        <v>35.36915345960573</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>64.76703889102811</v>
+        <v>64.63084654039429</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>35.23296110897189</v>
+        <v>35.36915345960573</v>
       </c>
       <c r="N23" s="7" t="n">
         <v>531</v>

--- a/output/aggregate_tables/compare_status_by_number.xlsx
+++ b/output/aggregate_tables/compare_status_by_number.xlsx
@@ -538,7 +538,7 @@
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Area</t>
+          <t>Analysis Group</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -682,82 +682,64 @@
       <c r="A4" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="n">
-        <v>21</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Area 21</t>
+        </is>
       </c>
       <c r="C4" s="7" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D4" s="7" t="n">
         <v>16</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F4" s="7" t="n">
         <v>55</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H4" s="7" t="n">
         <v>55</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>10.45751633986928</v>
+        <v>10.59602649006623</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>53.59477124183007</v>
+        <v>52.98013245033113</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>35.94771241830065</v>
+        <v>36.42384105960264</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>64.05228758169935</v>
+        <v>63.57615894039736</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35.94771241830065</v>
-      </c>
-      <c r="N4" s="7" t="n">
-        <v>42</v>
-      </c>
-      <c r="O4" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="P4" s="7" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="R4" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="S4" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="T4" s="5" t="n">
-        <v>9.523809523809524</v>
-      </c>
-      <c r="U4" s="5" t="n">
-        <v>54.76190476190477</v>
-      </c>
-      <c r="V4" s="5" t="n">
-        <v>35.71428571428572</v>
-      </c>
-      <c r="W4" s="5" t="n">
-        <v>64.28571428571429</v>
-      </c>
-      <c r="X4" s="5" t="n">
-        <v>35.71428571428572</v>
-      </c>
+        <v>36.42384105960264</v>
+      </c>
+      <c r="N4" s="5" t="n"/>
+      <c r="O4" s="5" t="n"/>
+      <c r="P4" s="5" t="n"/>
+      <c r="Q4" s="5" t="n"/>
+      <c r="R4" s="5" t="n"/>
+      <c r="S4" s="5" t="n"/>
+      <c r="T4" s="5" t="n"/>
+      <c r="U4" s="5" t="n"/>
+      <c r="V4" s="5" t="n"/>
+      <c r="W4" s="5" t="n"/>
+      <c r="X4" s="5" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="n">
-        <v>27</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Area 27</t>
+        </is>
       </c>
       <c r="C5" s="7" t="n">
         <v>178</v>
@@ -792,49 +774,29 @@
       <c r="M5" s="5" t="n">
         <v>24.15730337078652</v>
       </c>
-      <c r="N5" s="7" t="n">
-        <v>34</v>
-      </c>
-      <c r="O5" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="P5" s="7" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="R5" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="S5" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="T5" s="5" t="n">
-        <v>14.70588235294118</v>
-      </c>
-      <c r="U5" s="5" t="n">
-        <v>64.70588235294117</v>
-      </c>
-      <c r="V5" s="5" t="n">
-        <v>20.58823529411764</v>
-      </c>
-      <c r="W5" s="5" t="n">
-        <v>79.41176470588235</v>
-      </c>
-      <c r="X5" s="5" t="n">
-        <v>20.58823529411764</v>
-      </c>
+      <c r="N5" s="5" t="n"/>
+      <c r="O5" s="5" t="n"/>
+      <c r="P5" s="5" t="n"/>
+      <c r="Q5" s="5" t="n"/>
+      <c r="R5" s="5" t="n"/>
+      <c r="S5" s="5" t="n"/>
+      <c r="T5" s="5" t="n"/>
+      <c r="U5" s="5" t="n"/>
+      <c r="V5" s="5" t="n"/>
+      <c r="W5" s="5" t="n"/>
+      <c r="X5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="n">
-        <v>31</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Area 31</t>
+        </is>
       </c>
       <c r="C6" s="7" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="7" t="n">
         <v>39</v>
@@ -843,69 +805,49 @@
         <v>26</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="7" t="n">
         <v>65</v>
       </c>
       <c r="H6" s="7" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>37.86407766990291</v>
+        <v>38.23529411764706</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>25.24271844660194</v>
+        <v>25.49019607843137</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>36.89320388349515</v>
+        <v>36.27450980392157</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>63.10679611650486</v>
+        <v>63.72549019607843</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>36.89320388349515</v>
-      </c>
-      <c r="N6" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="O6" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="P6" s="7" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q6" s="7" t="n">
-        <v>21</v>
-      </c>
-      <c r="R6" s="7" t="n">
-        <v>29</v>
-      </c>
-      <c r="S6" s="7" t="n">
-        <v>21</v>
-      </c>
-      <c r="T6" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="U6" s="7" t="n">
-        <v>48</v>
-      </c>
-      <c r="V6" s="7" t="n">
-        <v>42</v>
-      </c>
-      <c r="W6" s="5" t="n">
-        <v>57.99999999999999</v>
-      </c>
-      <c r="X6" s="7" t="n">
-        <v>42</v>
-      </c>
+        <v>36.27450980392157</v>
+      </c>
+      <c r="N6" s="5" t="n"/>
+      <c r="O6" s="5" t="n"/>
+      <c r="P6" s="5" t="n"/>
+      <c r="Q6" s="5" t="n"/>
+      <c r="R6" s="5" t="n"/>
+      <c r="S6" s="5" t="n"/>
+      <c r="T6" s="5" t="n"/>
+      <c r="U6" s="5" t="n"/>
+      <c r="V6" s="5" t="n"/>
+      <c r="W6" s="5" t="n"/>
+      <c r="X6" s="5" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="n">
-        <v>34</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Area 34</t>
+        </is>
       </c>
       <c r="C7" s="7" t="n">
         <v>133</v>
@@ -940,49 +882,29 @@
       <c r="M7" s="5" t="n">
         <v>52.63157894736842</v>
       </c>
-      <c r="N7" s="7" t="n">
-        <v>39</v>
-      </c>
-      <c r="O7" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="P7" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="R7" s="7" t="n">
-        <v>19</v>
-      </c>
-      <c r="S7" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="T7" s="5" t="n">
-        <v>10.25641025641026</v>
-      </c>
-      <c r="U7" s="5" t="n">
-        <v>38.46153846153847</v>
-      </c>
-      <c r="V7" s="5" t="n">
-        <v>51.28205128205128</v>
-      </c>
-      <c r="W7" s="5" t="n">
-        <v>48.71794871794872</v>
-      </c>
-      <c r="X7" s="5" t="n">
-        <v>51.28205128205128</v>
-      </c>
+      <c r="N7" s="5" t="n"/>
+      <c r="O7" s="5" t="n"/>
+      <c r="P7" s="5" t="n"/>
+      <c r="Q7" s="5" t="n"/>
+      <c r="R7" s="5" t="n"/>
+      <c r="S7" s="5" t="n"/>
+      <c r="T7" s="5" t="n"/>
+      <c r="U7" s="5" t="n"/>
+      <c r="V7" s="5" t="n"/>
+      <c r="W7" s="5" t="n"/>
+      <c r="X7" s="5" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="n">
-        <v>37</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Area 37</t>
+        </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="7" t="n">
         <v>9</v>
@@ -991,69 +913,49 @@
         <v>31</v>
       </c>
       <c r="F8" s="7" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="7" t="n">
         <v>40</v>
       </c>
       <c r="H8" s="7" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>7.894736842105263</v>
+        <v>7.964601769911504</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>27.19298245614035</v>
+        <v>27.43362831858407</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>64.91228070175438</v>
+        <v>64.60176991150442</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>35.08771929824561</v>
+        <v>35.39823008849557</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>64.91228070175438</v>
-      </c>
-      <c r="N8" s="7" t="n">
-        <v>40</v>
-      </c>
-      <c r="O8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q8" s="7" t="n">
-        <v>25</v>
-      </c>
-      <c r="R8" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="S8" s="7" t="n">
-        <v>25</v>
-      </c>
-      <c r="T8" s="5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="V8" s="5" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="W8" s="5" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="X8" s="5" t="n">
-        <v>62.5</v>
-      </c>
+        <v>64.60176991150442</v>
+      </c>
+      <c r="N8" s="5" t="n"/>
+      <c r="O8" s="5" t="n"/>
+      <c r="P8" s="5" t="n"/>
+      <c r="Q8" s="5" t="n"/>
+      <c r="R8" s="5" t="n"/>
+      <c r="S8" s="5" t="n"/>
+      <c r="T8" s="5" t="n"/>
+      <c r="U8" s="5" t="n"/>
+      <c r="V8" s="5" t="n"/>
+      <c r="W8" s="5" t="n"/>
+      <c r="X8" s="5" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="n">
-        <v>41</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Area 41</t>
+        </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>68</v>
@@ -1088,705 +990,503 @@
       <c r="M9" s="5" t="n">
         <v>42.64705882352941</v>
       </c>
-      <c r="N9" s="7" t="n">
-        <v>17</v>
-      </c>
-      <c r="O9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q9" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="R9" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="S9" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="T9" s="5" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="U9" s="5" t="n">
-        <v>52.94117647058824</v>
-      </c>
-      <c r="V9" s="5" t="n">
-        <v>41.17647058823529</v>
-      </c>
-      <c r="W9" s="5" t="n">
-        <v>58.82352941176471</v>
-      </c>
-      <c r="X9" s="5" t="n">
-        <v>41.17647058823529</v>
-      </c>
+      <c r="N9" s="5" t="n"/>
+      <c r="O9" s="5" t="n"/>
+      <c r="P9" s="5" t="n"/>
+      <c r="Q9" s="5" t="n"/>
+      <c r="R9" s="5" t="n"/>
+      <c r="S9" s="5" t="n"/>
+      <c r="T9" s="5" t="n"/>
+      <c r="U9" s="5" t="n"/>
+      <c r="V9" s="5" t="n"/>
+      <c r="W9" s="5" t="n"/>
+      <c r="X9" s="5" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="n">
-        <v>47</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Area 47</t>
+        </is>
       </c>
       <c r="C10" s="7" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10" s="7" t="n">
         <v>27</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F10" s="7" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H10" s="7" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>32.53012048192771</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>27.71084337349398</v>
+        <v>24.69135802469136</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>39.75903614457831</v>
+        <v>41.9753086419753</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>60.24096385542169</v>
+        <v>58.0246913580247</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39.75903614457831</v>
-      </c>
-      <c r="N10" s="7" t="n">
-        <v>37</v>
-      </c>
-      <c r="O10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q10" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="R10" s="7" t="n">
-        <v>22</v>
-      </c>
-      <c r="S10" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="T10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="5" t="n">
-        <v>59.45945945945946</v>
-      </c>
-      <c r="V10" s="5" t="n">
-        <v>40.54054054054054</v>
-      </c>
-      <c r="W10" s="5" t="n">
-        <v>59.45945945945946</v>
-      </c>
-      <c r="X10" s="5" t="n">
-        <v>40.54054054054054</v>
-      </c>
+        <v>41.9753086419753</v>
+      </c>
+      <c r="N10" s="5" t="n"/>
+      <c r="O10" s="5" t="n"/>
+      <c r="P10" s="5" t="n"/>
+      <c r="Q10" s="5" t="n"/>
+      <c r="R10" s="5" t="n"/>
+      <c r="S10" s="5" t="n"/>
+      <c r="T10" s="5" t="n"/>
+      <c r="U10" s="5" t="n"/>
+      <c r="V10" s="5" t="n"/>
+      <c r="W10" s="5" t="n"/>
+      <c r="X10" s="5" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="n">
-        <v>51</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Area 48,58,88</t>
+        </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>476</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7" t="n">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>193</v>
+        <v>3</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>301</v>
+        <v>15</v>
       </c>
       <c r="H11" s="7" t="n">
-        <v>175</v>
-      </c>
-      <c r="I11" s="5" t="n">
-        <v>22.6890756302521</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v>40.54621848739496</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>36.76470588235294</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>63.23529411764706</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>36.76470588235294</v>
-      </c>
-      <c r="N11" s="7" t="n">
-        <v>32</v>
-      </c>
-      <c r="O11" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="7" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="R11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <v>80</v>
+      </c>
+      <c r="J11" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="S11" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="T11" s="5" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="U11" s="5" t="n">
-        <v>59.375</v>
-      </c>
-      <c r="V11" s="5" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="W11" s="5" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="X11" s="5" t="n">
-        <v>37.5</v>
-      </c>
+      <c r="K11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="M11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5" t="n"/>
+      <c r="O11" s="5" t="n"/>
+      <c r="P11" s="5" t="n"/>
+      <c r="Q11" s="5" t="n"/>
+      <c r="R11" s="5" t="n"/>
+      <c r="S11" s="5" t="n"/>
+      <c r="T11" s="5" t="n"/>
+      <c r="U11" s="5" t="n"/>
+      <c r="V11" s="5" t="n"/>
+      <c r="W11" s="5" t="n"/>
+      <c r="X11" s="5" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="n">
-        <v>57</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Area 51</t>
+        </is>
       </c>
       <c r="C12" s="7" t="n">
-        <v>313</v>
+        <v>471</v>
       </c>
       <c r="D12" s="7" t="n">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>229</v>
+        <v>296</v>
       </c>
       <c r="H12" s="7" t="n">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>23.32268370607029</v>
+        <v>22.08067940552017</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>49.84025559105431</v>
+        <v>40.76433121019109</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>26.8370607028754</v>
+        <v>37.15498938428875</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>73.16293929712459</v>
+        <v>62.84501061571125</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26.8370607028754</v>
-      </c>
-      <c r="N12" s="7" t="n">
-        <v>52</v>
-      </c>
-      <c r="O12" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="P12" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q12" s="7" t="n">
-        <v>19</v>
-      </c>
-      <c r="R12" s="7" t="n">
-        <v>33</v>
-      </c>
-      <c r="S12" s="7" t="n">
-        <v>19</v>
-      </c>
-      <c r="T12" s="5" t="n">
-        <v>11.53846153846154</v>
-      </c>
-      <c r="U12" s="5" t="n">
-        <v>51.92307692307693</v>
-      </c>
-      <c r="V12" s="5" t="n">
-        <v>36.53846153846153</v>
-      </c>
-      <c r="W12" s="5" t="n">
-        <v>63.46153846153846</v>
-      </c>
-      <c r="X12" s="5" t="n">
-        <v>36.53846153846153</v>
-      </c>
+        <v>37.15498938428875</v>
+      </c>
+      <c r="N12" s="5" t="n"/>
+      <c r="O12" s="5" t="n"/>
+      <c r="P12" s="5" t="n"/>
+      <c r="Q12" s="5" t="n"/>
+      <c r="R12" s="5" t="n"/>
+      <c r="S12" s="5" t="n"/>
+      <c r="T12" s="5" t="n"/>
+      <c r="U12" s="5" t="n"/>
+      <c r="V12" s="5" t="n"/>
+      <c r="W12" s="5" t="n"/>
+      <c r="X12" s="5" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="n">
-        <v>61</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Area 57</t>
+        </is>
       </c>
       <c r="C13" s="7" t="n">
-        <v>94</v>
+        <v>309</v>
       </c>
       <c r="D13" s="7" t="n">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>58</v>
+        <v>225</v>
       </c>
       <c r="H13" s="7" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>30.85106382978723</v>
+        <v>23.30097087378641</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>30.85106382978723</v>
+        <v>49.51456310679612</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>38.29787234042553</v>
+        <v>27.18446601941747</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>61.70212765957447</v>
+        <v>72.81553398058253</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38.29787234042553</v>
-      </c>
-      <c r="N13" s="7" t="n">
-        <v>25</v>
-      </c>
-      <c r="O13" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="P13" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q13" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="R13" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="S13" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="T13" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="U13" s="7" t="n">
-        <v>24</v>
-      </c>
-      <c r="V13" s="5" t="n">
-        <v>56.00000000000001</v>
-      </c>
-      <c r="W13" s="7" t="n">
-        <v>44</v>
-      </c>
-      <c r="X13" s="5" t="n">
-        <v>56.00000000000001</v>
-      </c>
+        <v>27.18446601941747</v>
+      </c>
+      <c r="N13" s="5" t="n"/>
+      <c r="O13" s="5" t="n"/>
+      <c r="P13" s="5" t="n"/>
+      <c r="Q13" s="5" t="n"/>
+      <c r="R13" s="5" t="n"/>
+      <c r="S13" s="5" t="n"/>
+      <c r="T13" s="5" t="n"/>
+      <c r="U13" s="5" t="n"/>
+      <c r="V13" s="5" t="n"/>
+      <c r="W13" s="5" t="n"/>
+      <c r="X13" s="5" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="n">
-        <v>67</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Area 61</t>
+        </is>
       </c>
       <c r="C14" s="7" t="n">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D14" s="7" t="n">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="H14" s="7" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>51.81818181818182</v>
+        <v>31.18279569892473</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>40.90909090909091</v>
+        <v>31.18279569892473</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>7.272727272727272</v>
+        <v>37.63440860215054</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>92.72727272727272</v>
+        <v>62.36559139784946</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7.272727272727272</v>
-      </c>
-      <c r="N14" s="7" t="n">
-        <v>34</v>
-      </c>
-      <c r="O14" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="P14" s="7" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q14" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="R14" s="7" t="n">
-        <v>26</v>
-      </c>
-      <c r="S14" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="T14" s="5" t="n">
-        <v>23.52941176470588</v>
-      </c>
-      <c r="U14" s="5" t="n">
-        <v>52.94117647058824</v>
-      </c>
-      <c r="V14" s="5" t="n">
-        <v>23.52941176470588</v>
-      </c>
-      <c r="W14" s="5" t="n">
-        <v>76.47058823529412</v>
-      </c>
-      <c r="X14" s="5" t="n">
-        <v>23.52941176470588</v>
-      </c>
+        <v>37.63440860215054</v>
+      </c>
+      <c r="N14" s="5" t="n"/>
+      <c r="O14" s="5" t="n"/>
+      <c r="P14" s="5" t="n"/>
+      <c r="Q14" s="5" t="n"/>
+      <c r="R14" s="5" t="n"/>
+      <c r="S14" s="5" t="n"/>
+      <c r="T14" s="5" t="n"/>
+      <c r="U14" s="5" t="n"/>
+      <c r="V14" s="5" t="n"/>
+      <c r="W14" s="5" t="n"/>
+      <c r="X14" s="5" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="n">
-        <v>71</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Area 67 - Other Stocks</t>
+        </is>
       </c>
       <c r="C15" s="7" t="n">
-        <v>265</v>
+        <v>110</v>
       </c>
       <c r="D15" s="7" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="H15" s="7" t="n">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>23.0188679245283</v>
+        <v>51.81818181818182</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>29.43396226415094</v>
+        <v>40.90909090909091</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>47.54716981132076</v>
+        <v>7.272727272727272</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>52.45283018867924</v>
+        <v>92.72727272727272</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>47.54716981132076</v>
-      </c>
-      <c r="N15" s="7" t="n">
-        <v>46</v>
-      </c>
-      <c r="O15" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="P15" s="7" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q15" s="7" t="n">
-        <v>16</v>
-      </c>
-      <c r="R15" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="S15" s="7" t="n">
-        <v>16</v>
-      </c>
-      <c r="T15" s="5" t="n">
-        <v>10.8695652173913</v>
-      </c>
-      <c r="U15" s="5" t="n">
-        <v>54.34782608695652</v>
-      </c>
-      <c r="V15" s="5" t="n">
-        <v>34.78260869565217</v>
-      </c>
-      <c r="W15" s="5" t="n">
-        <v>65.21739130434783</v>
-      </c>
-      <c r="X15" s="5" t="n">
-        <v>34.78260869565217</v>
-      </c>
+        <v>7.272727272727272</v>
+      </c>
+      <c r="N15" s="5" t="n"/>
+      <c r="O15" s="5" t="n"/>
+      <c r="P15" s="5" t="n"/>
+      <c r="Q15" s="5" t="n"/>
+      <c r="R15" s="5" t="n"/>
+      <c r="S15" s="5" t="n"/>
+      <c r="T15" s="5" t="n"/>
+      <c r="U15" s="5" t="n"/>
+      <c r="V15" s="5" t="n"/>
+      <c r="W15" s="5" t="n"/>
+      <c r="X15" s="5" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="n">
-        <v>77</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Area 67 - Salmon</t>
+        </is>
       </c>
       <c r="C16" s="7" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D16" s="7" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" s="7" t="n">
         <v>28</v>
       </c>
       <c r="G16" s="7" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H16" s="7" t="n">
         <v>28</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>37.63440860215054</v>
+        <v>30.58823529411765</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>32.25806451612903</v>
+        <v>36.47058823529412</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>30.10752688172043</v>
+        <v>32.94117647058823</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>69.89247311827957</v>
+        <v>67.05882352941175</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30.10752688172043</v>
-      </c>
-      <c r="N16" s="7" t="n">
-        <v>19</v>
-      </c>
-      <c r="O16" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="P16" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" s="7" t="n">
-        <v>16</v>
-      </c>
-      <c r="S16" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="T16" s="5" t="n">
-        <v>26.31578947368421</v>
-      </c>
-      <c r="U16" s="5" t="n">
-        <v>57.89473684210527</v>
-      </c>
-      <c r="V16" s="5" t="n">
-        <v>15.78947368421053</v>
-      </c>
-      <c r="W16" s="5" t="n">
-        <v>84.21052631578947</v>
-      </c>
-      <c r="X16" s="5" t="n">
-        <v>15.78947368421053</v>
-      </c>
+        <v>32.94117647058823</v>
+      </c>
+      <c r="N16" s="5" t="n"/>
+      <c r="O16" s="5" t="n"/>
+      <c r="P16" s="5" t="n"/>
+      <c r="Q16" s="5" t="n"/>
+      <c r="R16" s="5" t="n"/>
+      <c r="S16" s="5" t="n"/>
+      <c r="T16" s="5" t="n"/>
+      <c r="U16" s="5" t="n"/>
+      <c r="V16" s="5" t="n"/>
+      <c r="W16" s="5" t="n"/>
+      <c r="X16" s="5" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="7" t="n">
-        <v>81</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Area 71</t>
+        </is>
       </c>
       <c r="C17" s="7" t="n">
-        <v>166</v>
+        <v>263</v>
       </c>
       <c r="D17" s="7" t="n">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E17" s="7" t="n">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7" t="n">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="G17" s="7" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H17" s="7" t="n">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>10.24096385542169</v>
+        <v>23.19391634980989</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>75.30120481927712</v>
+        <v>29.65779467680608</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>14.4578313253012</v>
+        <v>47.14828897338403</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>85.54216867469879</v>
+        <v>52.85171102661597</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14.4578313253012</v>
-      </c>
-      <c r="N17" s="7" t="n">
-        <v>29</v>
-      </c>
-      <c r="O17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="7" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q17" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="R17" s="7" t="n">
-        <v>22</v>
-      </c>
-      <c r="S17" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="T17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" s="5" t="n">
-        <v>75.86206896551724</v>
-      </c>
-      <c r="V17" s="5" t="n">
-        <v>24.13793103448276</v>
-      </c>
-      <c r="W17" s="5" t="n">
-        <v>75.86206896551724</v>
-      </c>
-      <c r="X17" s="5" t="n">
-        <v>24.13793103448276</v>
-      </c>
+        <v>47.14828897338403</v>
+      </c>
+      <c r="N17" s="5" t="n"/>
+      <c r="O17" s="5" t="n"/>
+      <c r="P17" s="5" t="n"/>
+      <c r="Q17" s="5" t="n"/>
+      <c r="R17" s="5" t="n"/>
+      <c r="S17" s="5" t="n"/>
+      <c r="T17" s="5" t="n"/>
+      <c r="U17" s="5" t="n"/>
+      <c r="V17" s="5" t="n"/>
+      <c r="W17" s="5" t="n"/>
+      <c r="X17" s="5" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="B18" s="7" t="n">
-        <v>87</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Area 77</t>
+        </is>
       </c>
       <c r="C18" s="7" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D18" s="7" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E18" s="7" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="n">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="H18" s="7" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>18.36734693877551</v>
+        <v>36.26373626373626</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>27.55102040816326</v>
+        <v>32.96703296703296</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>54.08163265306123</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>45.91836734693878</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>54.08163265306123</v>
-      </c>
-      <c r="N18" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="O18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="R18" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="S18" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="T18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" s="5" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="V18" s="5" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="W18" s="5" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="X18" s="5" t="n">
-        <v>66.66666666666666</v>
-      </c>
+        <v>30.76923076923077</v>
+      </c>
+      <c r="N18" s="5" t="n"/>
+      <c r="O18" s="5" t="n"/>
+      <c r="P18" s="5" t="n"/>
+      <c r="Q18" s="5" t="n"/>
+      <c r="R18" s="5" t="n"/>
+      <c r="S18" s="5" t="n"/>
+      <c r="T18" s="5" t="n"/>
+      <c r="U18" s="5" t="n"/>
+      <c r="V18" s="5" t="n"/>
+      <c r="W18" s="5" t="n"/>
+      <c r="X18" s="5" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="6" t="n">
@@ -1794,41 +1494,41 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>48,58,88</t>
+          <t>Area 81</t>
         </is>
       </c>
       <c r="C19" s="7" t="n">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="D19" s="7" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E19" s="7" t="n">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G19" s="7" t="n">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="H19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7" t="n">
-        <v>80</v>
-      </c>
-      <c r="J19" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="K19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="M19" s="7" t="n">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>9.696969696969697</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>75.75757575757575</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>14.54545454545454</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>85.45454545454545</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>14.54545454545454</v>
       </c>
       <c r="N19" s="5" t="n"/>
       <c r="O19" s="5" t="n"/>
@@ -1848,41 +1548,41 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Salmon</t>
+          <t>Area 87</t>
         </is>
       </c>
       <c r="C20" s="7" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D20" s="7" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E20" s="7" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H20" s="7" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>30.58823529411765</v>
+        <v>18.36734693877551</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>36.47058823529412</v>
+        <v>27.55102040816326</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>32.94117647058823</v>
+        <v>54.08163265306123</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>67.05882352941175</v>
+        <v>45.91836734693878</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>32.94117647058823</v>
+        <v>54.08163265306123</v>
       </c>
       <c r="N20" s="5" t="n"/>
       <c r="O20" s="5" t="n"/>
@@ -1906,37 +1606,37 @@
         </is>
       </c>
       <c r="C21" s="7" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D21" s="7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E21" s="7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G21" s="7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>23.52941176470588</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>29.41176470588236</v>
+        <v>26.08695652173913</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>47.05882352941176</v>
+        <v>43.47826086956522</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>52.94117647058824</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>47.05882352941176</v>
+        <v>43.47826086956522</v>
       </c>
       <c r="N21" s="5" t="n"/>
       <c r="O21" s="5" t="n"/>
@@ -2036,37 +1736,37 @@
         </is>
       </c>
       <c r="C23" s="7" t="n">
-        <v>2587</v>
+        <v>2572</v>
       </c>
       <c r="D23" s="7" t="n">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E23" s="7" t="n">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="F23" s="7" t="n">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G23" s="7" t="n">
-        <v>1672</v>
+        <v>1659</v>
       </c>
       <c r="H23" s="7" t="n">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>22.9609586393506</v>
+        <v>22.900466562986</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>41.66988790104368</v>
+        <v>41.60186625194402</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>35.36915345960573</v>
+        <v>35.49766718506999</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>64.63084654039429</v>
+        <v>64.50233281493001</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>35.36915345960573</v>
+        <v>35.49766718506999</v>
       </c>
       <c r="N23" s="7" t="n">
         <v>531</v>

--- a/output/aggregate_tables/compare_status_by_number.xlsx
+++ b/output/aggregate_tables/compare_status_by_number.xlsx
@@ -720,17 +720,39 @@
       <c r="M4" s="5" t="n">
         <v>36.42384105960264</v>
       </c>
-      <c r="N4" s="5" t="n"/>
-      <c r="O4" s="5" t="n"/>
-      <c r="P4" s="5" t="n"/>
-      <c r="Q4" s="5" t="n"/>
-      <c r="R4" s="5" t="n"/>
-      <c r="S4" s="5" t="n"/>
-      <c r="T4" s="5" t="n"/>
-      <c r="U4" s="5" t="n"/>
-      <c r="V4" s="5" t="n"/>
-      <c r="W4" s="5" t="n"/>
-      <c r="X4" s="5" t="n"/>
+      <c r="N4" s="7" t="n">
+        <v>42</v>
+      </c>
+      <c r="O4" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="P4" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="R4" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="S4" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="T4" s="5" t="n">
+        <v>9.523809523809524</v>
+      </c>
+      <c r="U4" s="5" t="n">
+        <v>54.76190476190477</v>
+      </c>
+      <c r="V4" s="5" t="n">
+        <v>35.71428571428572</v>
+      </c>
+      <c r="W4" s="5" t="n">
+        <v>64.28571428571429</v>
+      </c>
+      <c r="X4" s="5" t="n">
+        <v>35.71428571428572</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="n">
@@ -774,17 +796,39 @@
       <c r="M5" s="5" t="n">
         <v>24.15730337078652</v>
       </c>
-      <c r="N5" s="5" t="n"/>
-      <c r="O5" s="5" t="n"/>
-      <c r="P5" s="5" t="n"/>
-      <c r="Q5" s="5" t="n"/>
-      <c r="R5" s="5" t="n"/>
-      <c r="S5" s="5" t="n"/>
-      <c r="T5" s="5" t="n"/>
-      <c r="U5" s="5" t="n"/>
-      <c r="V5" s="5" t="n"/>
-      <c r="W5" s="5" t="n"/>
-      <c r="X5" s="5" t="n"/>
+      <c r="N5" s="7" t="n">
+        <v>34</v>
+      </c>
+      <c r="O5" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="S5" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="T5" s="5" t="n">
+        <v>14.70588235294118</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>64.70588235294117</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>20.58823529411764</v>
+      </c>
+      <c r="W5" s="5" t="n">
+        <v>79.41176470588235</v>
+      </c>
+      <c r="X5" s="5" t="n">
+        <v>20.58823529411764</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="n">
@@ -796,7 +840,7 @@
         </is>
       </c>
       <c r="C6" s="7" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D6" s="7" t="n">
         <v>39</v>
@@ -805,40 +849,62 @@
         <v>26</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" s="7" t="n">
         <v>65</v>
       </c>
       <c r="H6" s="7" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>38.23529411764706</v>
+        <v>37.86407766990291</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>25.49019607843137</v>
+        <v>25.24271844660194</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>36.27450980392157</v>
+        <v>36.89320388349515</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>63.72549019607843</v>
+        <v>63.10679611650486</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>36.27450980392157</v>
-      </c>
-      <c r="N6" s="5" t="n"/>
-      <c r="O6" s="5" t="n"/>
-      <c r="P6" s="5" t="n"/>
-      <c r="Q6" s="5" t="n"/>
-      <c r="R6" s="5" t="n"/>
-      <c r="S6" s="5" t="n"/>
-      <c r="T6" s="5" t="n"/>
-      <c r="U6" s="5" t="n"/>
-      <c r="V6" s="5" t="n"/>
-      <c r="W6" s="5" t="n"/>
-      <c r="X6" s="5" t="n"/>
+        <v>36.89320388349515</v>
+      </c>
+      <c r="N6" s="7" t="n">
+        <v>50</v>
+      </c>
+      <c r="O6" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="R6" s="7" t="n">
+        <v>29</v>
+      </c>
+      <c r="S6" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="T6" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="U6" s="7" t="n">
+        <v>48</v>
+      </c>
+      <c r="V6" s="7" t="n">
+        <v>42</v>
+      </c>
+      <c r="W6" s="5" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="X6" s="7" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="n">
@@ -882,17 +948,39 @@
       <c r="M7" s="5" t="n">
         <v>52.63157894736842</v>
       </c>
-      <c r="N7" s="5" t="n"/>
-      <c r="O7" s="5" t="n"/>
-      <c r="P7" s="5" t="n"/>
-      <c r="Q7" s="5" t="n"/>
-      <c r="R7" s="5" t="n"/>
-      <c r="S7" s="5" t="n"/>
-      <c r="T7" s="5" t="n"/>
-      <c r="U7" s="5" t="n"/>
-      <c r="V7" s="5" t="n"/>
-      <c r="W7" s="5" t="n"/>
-      <c r="X7" s="5" t="n"/>
+      <c r="N7" s="7" t="n">
+        <v>39</v>
+      </c>
+      <c r="O7" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="P7" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="R7" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="S7" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>10.25641025641026</v>
+      </c>
+      <c r="U7" s="5" t="n">
+        <v>38.46153846153847</v>
+      </c>
+      <c r="V7" s="5" t="n">
+        <v>51.28205128205128</v>
+      </c>
+      <c r="W7" s="5" t="n">
+        <v>48.71794871794872</v>
+      </c>
+      <c r="X7" s="5" t="n">
+        <v>51.28205128205128</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="n">
@@ -936,17 +1024,39 @@
       <c r="M8" s="5" t="n">
         <v>64.60176991150442</v>
       </c>
-      <c r="N8" s="5" t="n"/>
-      <c r="O8" s="5" t="n"/>
-      <c r="P8" s="5" t="n"/>
-      <c r="Q8" s="5" t="n"/>
-      <c r="R8" s="5" t="n"/>
-      <c r="S8" s="5" t="n"/>
-      <c r="T8" s="5" t="n"/>
-      <c r="U8" s="5" t="n"/>
-      <c r="V8" s="5" t="n"/>
-      <c r="W8" s="5" t="n"/>
-      <c r="X8" s="5" t="n"/>
+      <c r="N8" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="O8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="R8" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="S8" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="T8" s="5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U8" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="V8" s="5" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="W8" s="5" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="X8" s="5" t="n">
+        <v>62.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="n">
@@ -990,17 +1100,39 @@
       <c r="M9" s="5" t="n">
         <v>42.64705882352941</v>
       </c>
-      <c r="N9" s="5" t="n"/>
-      <c r="O9" s="5" t="n"/>
-      <c r="P9" s="5" t="n"/>
-      <c r="Q9" s="5" t="n"/>
-      <c r="R9" s="5" t="n"/>
-      <c r="S9" s="5" t="n"/>
-      <c r="T9" s="5" t="n"/>
-      <c r="U9" s="5" t="n"/>
-      <c r="V9" s="5" t="n"/>
-      <c r="W9" s="5" t="n"/>
-      <c r="X9" s="5" t="n"/>
+      <c r="N9" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="O9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="T9" s="5" t="n">
+        <v>5.88235294117647</v>
+      </c>
+      <c r="U9" s="5" t="n">
+        <v>52.94117647058824</v>
+      </c>
+      <c r="V9" s="5" t="n">
+        <v>41.17647058823529</v>
+      </c>
+      <c r="W9" s="5" t="n">
+        <v>58.82352941176471</v>
+      </c>
+      <c r="X9" s="5" t="n">
+        <v>41.17647058823529</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="n">
@@ -1044,17 +1176,39 @@
       <c r="M10" s="5" t="n">
         <v>41.9753086419753</v>
       </c>
-      <c r="N10" s="5" t="n"/>
-      <c r="O10" s="5" t="n"/>
-      <c r="P10" s="5" t="n"/>
-      <c r="Q10" s="5" t="n"/>
-      <c r="R10" s="5" t="n"/>
-      <c r="S10" s="5" t="n"/>
-      <c r="T10" s="5" t="n"/>
-      <c r="U10" s="5" t="n"/>
-      <c r="V10" s="5" t="n"/>
-      <c r="W10" s="5" t="n"/>
-      <c r="X10" s="5" t="n"/>
+      <c r="N10" s="7" t="n">
+        <v>37</v>
+      </c>
+      <c r="O10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="R10" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="S10" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="T10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5" t="n">
+        <v>59.45945945945946</v>
+      </c>
+      <c r="V10" s="5" t="n">
+        <v>40.54054054054054</v>
+      </c>
+      <c r="W10" s="5" t="n">
+        <v>59.45945945945946</v>
+      </c>
+      <c r="X10" s="5" t="n">
+        <v>40.54054054054054</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="n">
@@ -1120,7 +1274,7 @@
         </is>
       </c>
       <c r="C12" s="7" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D12" s="7" t="n">
         <v>104</v>
@@ -1129,40 +1283,62 @@
         <v>192</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G12" s="7" t="n">
         <v>296</v>
       </c>
       <c r="H12" s="7" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>22.08067940552017</v>
+        <v>22.12765957446808</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>40.76433121019109</v>
+        <v>40.85106382978723</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>37.15498938428875</v>
+        <v>37.02127659574468</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>62.84501061571125</v>
+        <v>62.97872340425532</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>37.15498938428875</v>
-      </c>
-      <c r="N12" s="5" t="n"/>
-      <c r="O12" s="5" t="n"/>
-      <c r="P12" s="5" t="n"/>
-      <c r="Q12" s="5" t="n"/>
-      <c r="R12" s="5" t="n"/>
-      <c r="S12" s="5" t="n"/>
-      <c r="T12" s="5" t="n"/>
-      <c r="U12" s="5" t="n"/>
-      <c r="V12" s="5" t="n"/>
-      <c r="W12" s="5" t="n"/>
-      <c r="X12" s="5" t="n"/>
+        <v>37.02127659574468</v>
+      </c>
+      <c r="N12" s="7" t="n">
+        <v>32</v>
+      </c>
+      <c r="O12" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="R12" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="S12" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="T12" s="5" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="U12" s="5" t="n">
+        <v>59.375</v>
+      </c>
+      <c r="V12" s="5" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="W12" s="5" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="X12" s="5" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="n">
@@ -1174,49 +1350,71 @@
         </is>
       </c>
       <c r="C13" s="7" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D13" s="7" t="n">
         <v>72</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F13" s="7" t="n">
         <v>84</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H13" s="7" t="n">
         <v>84</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>23.30097087378641</v>
+        <v>23.37662337662337</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>49.51456310679612</v>
+        <v>49.35064935064935</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>27.18446601941747</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>72.81553398058253</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27.18446601941747</v>
-      </c>
-      <c r="N13" s="5" t="n"/>
-      <c r="O13" s="5" t="n"/>
-      <c r="P13" s="5" t="n"/>
-      <c r="Q13" s="5" t="n"/>
-      <c r="R13" s="5" t="n"/>
-      <c r="S13" s="5" t="n"/>
-      <c r="T13" s="5" t="n"/>
-      <c r="U13" s="5" t="n"/>
-      <c r="V13" s="5" t="n"/>
-      <c r="W13" s="5" t="n"/>
-      <c r="X13" s="5" t="n"/>
+        <v>27.27272727272727</v>
+      </c>
+      <c r="N13" s="7" t="n">
+        <v>52</v>
+      </c>
+      <c r="O13" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="P13" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="R13" s="7" t="n">
+        <v>33</v>
+      </c>
+      <c r="S13" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="T13" s="5" t="n">
+        <v>11.53846153846154</v>
+      </c>
+      <c r="U13" s="5" t="n">
+        <v>51.92307692307693</v>
+      </c>
+      <c r="V13" s="5" t="n">
+        <v>36.53846153846153</v>
+      </c>
+      <c r="W13" s="5" t="n">
+        <v>63.46153846153846</v>
+      </c>
+      <c r="X13" s="5" t="n">
+        <v>36.53846153846153</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="n">
@@ -1228,7 +1426,7 @@
         </is>
       </c>
       <c r="C14" s="7" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="7" t="n">
         <v>29</v>
@@ -1237,40 +1435,62 @@
         <v>29</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="7" t="n">
         <v>58</v>
       </c>
       <c r="H14" s="7" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>31.18279569892473</v>
+        <v>31.52173913043478</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>31.18279569892473</v>
+        <v>31.52173913043478</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>37.63440860215054</v>
+        <v>36.95652173913043</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>62.36559139784946</v>
+        <v>63.04347826086957</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>37.63440860215054</v>
-      </c>
-      <c r="N14" s="5" t="n"/>
-      <c r="O14" s="5" t="n"/>
-      <c r="P14" s="5" t="n"/>
-      <c r="Q14" s="5" t="n"/>
-      <c r="R14" s="5" t="n"/>
-      <c r="S14" s="5" t="n"/>
-      <c r="T14" s="5" t="n"/>
-      <c r="U14" s="5" t="n"/>
-      <c r="V14" s="5" t="n"/>
-      <c r="W14" s="5" t="n"/>
-      <c r="X14" s="5" t="n"/>
+        <v>36.95652173913043</v>
+      </c>
+      <c r="N14" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="O14" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P14" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="R14" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="S14" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="T14" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="U14" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="V14" s="5" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="W14" s="7" t="n">
+        <v>44</v>
+      </c>
+      <c r="X14" s="5" t="n">
+        <v>56.00000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="n">
@@ -1278,7 +1498,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Area 67 - Other Stocks</t>
+          <t>Area 67</t>
         </is>
       </c>
       <c r="C15" s="7" t="n">
@@ -1314,17 +1534,39 @@
       <c r="M15" s="5" t="n">
         <v>7.272727272727272</v>
       </c>
-      <c r="N15" s="5" t="n"/>
-      <c r="O15" s="5" t="n"/>
-      <c r="P15" s="5" t="n"/>
-      <c r="Q15" s="5" t="n"/>
-      <c r="R15" s="5" t="n"/>
-      <c r="S15" s="5" t="n"/>
-      <c r="T15" s="5" t="n"/>
-      <c r="U15" s="5" t="n"/>
-      <c r="V15" s="5" t="n"/>
-      <c r="W15" s="5" t="n"/>
-      <c r="X15" s="5" t="n"/>
+      <c r="N15" s="7" t="n">
+        <v>34</v>
+      </c>
+      <c r="O15" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="P15" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="R15" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="S15" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="T15" s="5" t="n">
+        <v>23.52941176470588</v>
+      </c>
+      <c r="U15" s="5" t="n">
+        <v>52.94117647058824</v>
+      </c>
+      <c r="V15" s="5" t="n">
+        <v>23.52941176470588</v>
+      </c>
+      <c r="W15" s="5" t="n">
+        <v>76.47058823529412</v>
+      </c>
+      <c r="X15" s="5" t="n">
+        <v>23.52941176470588</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="n">
@@ -1332,7 +1574,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Area 67 - Salmon</t>
+          <t>Area 67 - Pacific Salmon</t>
         </is>
       </c>
       <c r="C16" s="7" t="n">
@@ -1422,17 +1664,39 @@
       <c r="M17" s="5" t="n">
         <v>47.14828897338403</v>
       </c>
-      <c r="N17" s="5" t="n"/>
-      <c r="O17" s="5" t="n"/>
-      <c r="P17" s="5" t="n"/>
-      <c r="Q17" s="5" t="n"/>
-      <c r="R17" s="5" t="n"/>
-      <c r="S17" s="5" t="n"/>
-      <c r="T17" s="5" t="n"/>
-      <c r="U17" s="5" t="n"/>
-      <c r="V17" s="5" t="n"/>
-      <c r="W17" s="5" t="n"/>
-      <c r="X17" s="5" t="n"/>
+      <c r="N17" s="7" t="n">
+        <v>46</v>
+      </c>
+      <c r="O17" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P17" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="R17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="T17" s="5" t="n">
+        <v>10.8695652173913</v>
+      </c>
+      <c r="U17" s="5" t="n">
+        <v>54.34782608695652</v>
+      </c>
+      <c r="V17" s="5" t="n">
+        <v>34.78260869565217</v>
+      </c>
+      <c r="W17" s="5" t="n">
+        <v>65.21739130434783</v>
+      </c>
+      <c r="X17" s="5" t="n">
+        <v>34.78260869565217</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="n">
@@ -1476,17 +1740,39 @@
       <c r="M18" s="5" t="n">
         <v>30.76923076923077</v>
       </c>
-      <c r="N18" s="5" t="n"/>
-      <c r="O18" s="5" t="n"/>
-      <c r="P18" s="5" t="n"/>
-      <c r="Q18" s="5" t="n"/>
-      <c r="R18" s="5" t="n"/>
-      <c r="S18" s="5" t="n"/>
-      <c r="T18" s="5" t="n"/>
-      <c r="U18" s="5" t="n"/>
-      <c r="V18" s="5" t="n"/>
-      <c r="W18" s="5" t="n"/>
-      <c r="X18" s="5" t="n"/>
+      <c r="N18" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="O18" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P18" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="S18" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" s="5" t="n">
+        <v>26.31578947368421</v>
+      </c>
+      <c r="U18" s="5" t="n">
+        <v>57.89473684210527</v>
+      </c>
+      <c r="V18" s="5" t="n">
+        <v>15.78947368421053</v>
+      </c>
+      <c r="W18" s="5" t="n">
+        <v>84.21052631578947</v>
+      </c>
+      <c r="X18" s="5" t="n">
+        <v>15.78947368421053</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="n">
@@ -1530,17 +1816,39 @@
       <c r="M19" s="5" t="n">
         <v>14.54545454545454</v>
       </c>
-      <c r="N19" s="5" t="n"/>
-      <c r="O19" s="5" t="n"/>
-      <c r="P19" s="5" t="n"/>
-      <c r="Q19" s="5" t="n"/>
-      <c r="R19" s="5" t="n"/>
-      <c r="S19" s="5" t="n"/>
-      <c r="T19" s="5" t="n"/>
-      <c r="U19" s="5" t="n"/>
-      <c r="V19" s="5" t="n"/>
-      <c r="W19" s="5" t="n"/>
-      <c r="X19" s="5" t="n"/>
+      <c r="N19" s="7" t="n">
+        <v>29</v>
+      </c>
+      <c r="O19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="R19" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="S19" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="T19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" s="5" t="n">
+        <v>75.86206896551724</v>
+      </c>
+      <c r="V19" s="5" t="n">
+        <v>24.13793103448276</v>
+      </c>
+      <c r="W19" s="5" t="n">
+        <v>75.86206896551724</v>
+      </c>
+      <c r="X19" s="5" t="n">
+        <v>24.13793103448276</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="n">
@@ -1552,7 +1860,7 @@
         </is>
       </c>
       <c r="C20" s="7" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="7" t="n">
         <v>18</v>
@@ -1561,40 +1869,62 @@
         <v>27</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G20" s="7" t="n">
         <v>45</v>
       </c>
       <c r="H20" s="7" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>18.36734693877551</v>
+        <v>18.55670103092784</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>27.55102040816326</v>
+        <v>27.83505154639175</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>54.08163265306123</v>
+        <v>53.60824742268041</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>45.91836734693878</v>
+        <v>46.39175257731959</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>54.08163265306123</v>
-      </c>
-      <c r="N20" s="5" t="n"/>
-      <c r="O20" s="5" t="n"/>
-      <c r="P20" s="5" t="n"/>
-      <c r="Q20" s="5" t="n"/>
-      <c r="R20" s="5" t="n"/>
-      <c r="S20" s="5" t="n"/>
-      <c r="T20" s="5" t="n"/>
-      <c r="U20" s="5" t="n"/>
-      <c r="V20" s="5" t="n"/>
-      <c r="W20" s="5" t="n"/>
-      <c r="X20" s="5" t="n"/>
+        <v>53.60824742268041</v>
+      </c>
+      <c r="N20" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="O20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="R20" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="T20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" s="5" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="V20" s="5" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="W20" s="5" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="X20" s="5" t="n">
+        <v>66.66666666666666</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="n">
@@ -1609,10 +1939,10 @@
         <v>23</v>
       </c>
       <c r="D21" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E21" s="7" t="n">
         <v>7</v>
-      </c>
-      <c r="E21" s="7" t="n">
-        <v>6</v>
       </c>
       <c r="F21" s="7" t="n">
         <v>10</v>
@@ -1624,10 +1954,10 @@
         <v>10</v>
       </c>
       <c r="I21" s="5" t="n">
+        <v>26.08695652173913</v>
+      </c>
+      <c r="J21" s="5" t="n">
         <v>30.43478260869566</v>
-      </c>
-      <c r="J21" s="5" t="n">
-        <v>26.08695652173913</v>
       </c>
       <c r="K21" s="5" t="n">
         <v>43.47826086956522</v>
@@ -1736,37 +2066,37 @@
         </is>
       </c>
       <c r="C23" s="7" t="n">
-        <v>2572</v>
+        <v>2569</v>
       </c>
       <c r="D23" s="7" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E23" s="7" t="n">
         <v>1070</v>
       </c>
       <c r="F23" s="7" t="n">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="G23" s="7" t="n">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H23" s="7" t="n">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>22.900466562986</v>
+        <v>22.88828337874659</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>41.60186625194402</v>
+        <v>41.65044764499805</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>35.49766718506999</v>
+        <v>35.46126897625535</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>64.50233281493001</v>
+        <v>64.53873102374465</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>35.49766718506999</v>
+        <v>35.46126897625535</v>
       </c>
       <c r="N23" s="7" t="n">
         <v>531</v>

--- a/output/aggregate_tables/compare_status_by_number.xlsx
+++ b/output/aggregate_tables/compare_status_by_number.xlsx
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="C6" s="7" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6" s="7" t="n">
         <v>39</v>
@@ -849,28 +849,28 @@
         <v>26</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" s="7" t="n">
         <v>65</v>
       </c>
       <c r="H6" s="7" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>37.86407766990291</v>
-      </c>
-      <c r="J6" s="5" t="n">
-        <v>25.24271844660194</v>
+        <v>37.5</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <v>25</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>36.89320388349515</v>
+        <v>37.5</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>63.10679611650486</v>
+        <v>62.5</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>36.89320388349515</v>
+        <v>37.5</v>
       </c>
       <c r="N6" s="7" t="n">
         <v>50</v>
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D8" s="7" t="n">
         <v>9</v>
@@ -1001,28 +1001,28 @@
         <v>31</v>
       </c>
       <c r="F8" s="7" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G8" s="7" t="n">
         <v>40</v>
       </c>
       <c r="H8" s="7" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>7.964601769911504</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>27.43362831858407</v>
+        <v>27.19298245614035</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>64.60176991150442</v>
+        <v>64.91228070175438</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>35.39823008849557</v>
+        <v>35.08771929824561</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>64.60176991150442</v>
+        <v>64.91228070175438</v>
       </c>
       <c r="N8" s="7" t="n">
         <v>40</v>
@@ -1068,37 +1068,37 @@
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" s="7" t="n">
         <v>10</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="n">
         <v>29</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9" s="7" t="n">
         <v>29</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>14.70588235294118</v>
+        <v>14.49275362318841</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>42.64705882352941</v>
+        <v>43.47826086956522</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>42.64705882352941</v>
+        <v>42.02898550724638</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>57.35294117647059</v>
+        <v>57.97101449275362</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>42.64705882352941</v>
+        <v>42.02898550724638</v>
       </c>
       <c r="N9" s="7" t="n">
         <v>17</v>
@@ -2066,37 +2066,37 @@
         </is>
       </c>
       <c r="C23" s="7" t="n">
-        <v>2569</v>
+        <v>2572</v>
       </c>
       <c r="D23" s="7" t="n">
         <v>588</v>
       </c>
       <c r="E23" s="7" t="n">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="F23" s="7" t="n">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G23" s="7" t="n">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="H23" s="7" t="n">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>22.88828337874659</v>
+        <v>22.86158631415241</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>41.65044764499805</v>
+        <v>41.6407465007776</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>35.46126897625535</v>
+        <v>35.49766718506999</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>64.53873102374465</v>
+        <v>64.50233281493001</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>35.46126897625535</v>
+        <v>35.49766718506999</v>
       </c>
       <c r="N23" s="7" t="n">
         <v>531</v>
